--- a/TRACKING_Comments_TDF_Packages.xlsx
+++ b/TRACKING_Comments_TDF_Packages.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PeterS\Documents\TestDataFactory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72224B9-7A93-49DC-B8CA-E066DEF2AB79}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACD74A8-9CCA-4761-A0D9-682AA52DA825}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="0" windowWidth="23595" windowHeight="11745" xr2:uid="{91F4970D-346D-4276-A6FF-88136B289A12}"/>
+    <workbookView xWindow="3510" yWindow="0" windowWidth="23595" windowHeight="11745" xr2:uid="{91F4970D-346D-4276-A6FF-88136B289A12}"/>
   </bookViews>
   <sheets>
     <sheet name="ADaM" sheetId="1" r:id="rId1"/>
     <sheet name="SDTM" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ADaM!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ADaM!$A$2:$H$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SDTM!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="181029" concurrentCalc="0"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
   <si>
     <t>Dataset</t>
   </si>
@@ -461,6 +461,20 @@
   </si>
   <si>
     <t>check, why P21 doesn't report this. Agreed to fix this (Jessica)</t>
+  </si>
+  <si>
+    <t>Jessica: The ADAE.xpt I downloaded from Github had TRTEMFL with just Y values.
+Also, I looked up old pinnacle reports run on the original data, and it does have a finding when TRTEMFL flag value is not Y or null.</t>
+  </si>
+  <si>
+    <t>Jessica: Updated file and uploaded to Github</t>
+  </si>
+  <si>
+    <t>Peter: Updated file and uploaded to Github</t>
+  </si>
+  <si>
+    <t>Jessica: I looked up old pinnacle report, and looks like we made this change b/c of following error from pinnacle:
+Calculation issue: AWTDIFF is populated but AWTARGET and/or one of [ADY,ARELTM] are not both present and populated</t>
   </si>
 </sst>
 </file>
@@ -584,102 +598,6 @@
         <strike val="0"/>
         <color theme="1" tint="0.499984740745262"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1003,6 +921,102 @@
         <i val="0"/>
         <strike val="0"/>
         <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
       </font>
     </dxf>
     <dxf>
@@ -1663,11 +1677,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B4B9DC-E1D1-4E42-A0FE-7A3018C78215}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,10 +1693,11 @@
     <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
@@ -1693,7 +1708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1715,8 +1730,11 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -1736,10 +1754,13 @@
         <v>35</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1759,10 +1780,13 @@
         <v>32</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1782,10 +1806,13 @@
         <v>32</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1805,10 +1832,13 @@
         <v>31</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1828,10 +1858,13 @@
         <v>31</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1851,10 +1884,13 @@
         <v>31</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1874,10 +1910,13 @@
         <v>31</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -1897,10 +1936,13 @@
         <v>34</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1919,7 +1961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1938,7 +1980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1957,7 +1999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1976,7 +2018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -1995,7 +2037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -2075,7 +2117,7 @@
       <c r="G28" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G2" xr:uid="{21B7E40D-2FBA-4FF4-B35F-30341514E5CB}"/>
+  <autoFilter ref="A2:H16" xr:uid="{3F517C2C-A1F2-46AB-BC00-72412FC88736}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G16">
     <sortCondition descending="1" ref="G3:G16"/>
     <sortCondition ref="A3:A16"/>
@@ -2257,50 +2299,50 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="57" priority="11">
       <formula>$G4="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="56" priority="12">
       <formula>$G4="closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F9">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="55" priority="9">
       <formula>$G6="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="54" priority="10">
       <formula>$G6="closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E9">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="53" priority="7">
       <formula>$G6="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="52" priority="8">
       <formula>$G6="closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="51" priority="5">
       <formula>$G5="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="50" priority="6">
       <formula>$G5="closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="49" priority="3">
       <formula>$G5="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="48" priority="4">
       <formula>$G5="closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>$G10="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>$G10="closed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2515,186 +2557,186 @@
   </sheetData>
   <autoFilter ref="A2:G2" xr:uid="{21B7E40D-2FBA-4FF4-B35F-30341514E5CB}"/>
   <conditionalFormatting sqref="G3 G5:G28">
-    <cfRule type="cellIs" dxfId="57" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
       <formula>"open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
       <formula>"closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:F28">
-    <cfRule type="expression" dxfId="55" priority="51">
+    <cfRule type="expression" dxfId="43" priority="51">
       <formula>$G16="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="52">
+    <cfRule type="expression" dxfId="42" priority="52">
       <formula>$G16="closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:F15">
-    <cfRule type="expression" dxfId="53" priority="49">
+    <cfRule type="expression" dxfId="41" priority="49">
       <formula>$G15="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="50">
+    <cfRule type="expression" dxfId="40" priority="50">
       <formula>$G15="closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:F14">
-    <cfRule type="expression" dxfId="51" priority="47">
+    <cfRule type="expression" dxfId="39" priority="47">
       <formula>$G14="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="48">
+    <cfRule type="expression" dxfId="38" priority="48">
       <formula>$G14="closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:F13">
-    <cfRule type="expression" dxfId="49" priority="45">
+    <cfRule type="expression" dxfId="37" priority="45">
       <formula>$G13="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="46">
+    <cfRule type="expression" dxfId="36" priority="46">
       <formula>$G13="closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:F12">
-    <cfRule type="expression" dxfId="47" priority="43">
+    <cfRule type="expression" dxfId="35" priority="43">
       <formula>$G12="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="44">
+    <cfRule type="expression" dxfId="34" priority="44">
       <formula>$G12="closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:F11">
-    <cfRule type="expression" dxfId="45" priority="41">
+    <cfRule type="expression" dxfId="33" priority="41">
       <formula>$G11="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="42">
+    <cfRule type="expression" dxfId="32" priority="42">
       <formula>$G11="closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:F10">
-    <cfRule type="expression" dxfId="43" priority="39">
+    <cfRule type="expression" dxfId="31" priority="39">
       <formula>$G10="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="40">
+    <cfRule type="expression" dxfId="30" priority="40">
       <formula>$G10="closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9 E9:F9">
-    <cfRule type="expression" dxfId="41" priority="37">
+    <cfRule type="expression" dxfId="29" priority="37">
       <formula>$G9="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="38">
+    <cfRule type="expression" dxfId="28" priority="38">
       <formula>$G9="closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8 E8:F8">
-    <cfRule type="expression" dxfId="39" priority="35">
+    <cfRule type="expression" dxfId="27" priority="35">
       <formula>$G8="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="36">
+    <cfRule type="expression" dxfId="26" priority="36">
       <formula>$G8="closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7:F7">
-    <cfRule type="expression" dxfId="37" priority="33">
+    <cfRule type="expression" dxfId="25" priority="33">
       <formula>$G7="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="34">
+    <cfRule type="expression" dxfId="24" priority="34">
       <formula>$G7="closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:F6">
-    <cfRule type="expression" dxfId="35" priority="31">
+    <cfRule type="expression" dxfId="23" priority="31">
       <formula>$G6="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="32">
+    <cfRule type="expression" dxfId="22" priority="32">
       <formula>$G6="closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:F5">
-    <cfRule type="expression" dxfId="33" priority="29">
+    <cfRule type="expression" dxfId="21" priority="29">
       <formula>$G5="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="30">
+    <cfRule type="expression" dxfId="20" priority="30">
       <formula>$G5="closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:F3">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="19" priority="25">
       <formula>$G3="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="18" priority="26">
       <formula>$G3="closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>$G7="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24">
+    <cfRule type="expression" dxfId="16" priority="24">
       <formula>$G7="closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="15" priority="21">
       <formula>$G8="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="14" priority="22">
       <formula>$G8="closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="25" priority="19">
+    <cfRule type="expression" dxfId="13" priority="19">
       <formula>$G9="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="20">
+    <cfRule type="expression" dxfId="12" priority="20">
       <formula>$G9="closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>"open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
       <formula>"closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F4">
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>$G4="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>$G4="closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>$G4="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
+    <cfRule type="expression" dxfId="6" priority="14">
       <formula>$G4="closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$G1="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$G1="closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$G1="open"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$G1="closed"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/TRACKING_Comments_TDF_Packages.xlsx
+++ b/TRACKING_Comments_TDF_Packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PeterS\Documents\TestDataFactory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACD74A8-9CCA-4761-A0D9-682AA52DA825}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F315D636-52A5-4AB9-9CA4-A03267AB0CF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="0" windowWidth="23595" windowHeight="11745" xr2:uid="{91F4970D-346D-4276-A6FF-88136B289A12}"/>
+    <workbookView xWindow="5265" yWindow="0" windowWidth="23595" windowHeight="11745" xr2:uid="{91F4970D-346D-4276-A6FF-88136B289A12}"/>
   </bookViews>
   <sheets>
     <sheet name="ADaM" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="42">
   <si>
     <t>Dataset</t>
   </si>
@@ -475,6 +475,12 @@
   <si>
     <t>Jessica: I looked up old pinnacle report, and looks like we made this change b/c of following error from pinnacle:
 Calculation issue: AWTDIFF is populated but AWTARGET and/or one of [ADY,ARELTM] are not both present and populated</t>
+  </si>
+  <si>
+    <t>final review</t>
+  </si>
+  <si>
+    <t>work in progress</t>
   </si>
 </sst>
 </file>
@@ -560,45 +566,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="102">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
+  <dxfs count="162">
     <dxf>
       <font>
         <b/>
@@ -612,38 +580,6 @@
         <strike val="0"/>
         <color theme="1" tint="0.499984740745262"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -655,268 +591,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -928,134 +602,6 @@
         <strike val="0"/>
         <color theme="1" tint="0.499984740745262"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1095,6 +641,940 @@
     <dxf>
       <font>
         <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -1681,7 +2161,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,7 +2185,7 @@
         <v>29</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1754,7 +2234,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>36</v>
@@ -1780,7 +2260,7 @@
         <v>32</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>37</v>
@@ -1806,7 +2286,7 @@
         <v>32</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>37</v>
@@ -1832,7 +2312,7 @@
         <v>31</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>38</v>
@@ -1858,7 +2338,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>38</v>
@@ -1884,7 +2364,7 @@
         <v>31</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>38</v>
@@ -1936,7 +2416,7 @@
         <v>34</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>39</v>
@@ -2122,233 +2602,231 @@
     <sortCondition descending="1" ref="G3:G16"/>
     <sortCondition ref="A3:A16"/>
   </sortState>
-  <conditionalFormatting sqref="G3:G28">
-    <cfRule type="cellIs" dxfId="101" priority="97" operator="equal">
+  <conditionalFormatting sqref="A16:F28">
+    <cfRule type="expression" dxfId="57" priority="85">
+      <formula>$G16="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="86">
+      <formula>$G16="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:F15">
+    <cfRule type="expression" dxfId="55" priority="59">
+      <formula>$G15="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="60">
+      <formula>$G15="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:F14">
+    <cfRule type="expression" dxfId="53" priority="57">
+      <formula>$G14="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="58">
+      <formula>$G14="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:F13">
+    <cfRule type="expression" dxfId="51" priority="55">
+      <formula>$G13="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="56">
+      <formula>$G13="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:F12">
+    <cfRule type="expression" dxfId="49" priority="53">
+      <formula>$G12="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="54">
+      <formula>$G12="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:F11">
+    <cfRule type="expression" dxfId="47" priority="51">
+      <formula>$G11="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="52">
+      <formula>$G11="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:D10 F10">
+    <cfRule type="expression" dxfId="45" priority="49">
+      <formula>$G10="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="50">
+      <formula>$G10="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9">
+    <cfRule type="expression" dxfId="43" priority="47">
+      <formula>$G9="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="48">
+      <formula>$G9="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:C8">
+    <cfRule type="expression" dxfId="41" priority="45">
+      <formula>$G8="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="46">
+      <formula>$G8="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:C7">
+    <cfRule type="expression" dxfId="39" priority="43">
+      <formula>$G7="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="44">
+      <formula>$G7="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:D6">
+    <cfRule type="expression" dxfId="37" priority="41">
+      <formula>$G6="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="42">
+      <formula>$G6="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:D5">
+    <cfRule type="expression" dxfId="35" priority="39">
+      <formula>$G5="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="40">
+      <formula>$G5="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:D4 F4">
+    <cfRule type="expression" dxfId="33" priority="37">
+      <formula>$G4="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="38">
+      <formula>$G4="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:F3">
+    <cfRule type="expression" dxfId="31" priority="35">
+      <formula>$G3="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="36">
+      <formula>$G3="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="29" priority="33">
+      <formula>$G7="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="34">
+      <formula>$G7="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="27" priority="31">
+      <formula>$G8="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="32">
+      <formula>$G8="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="25" priority="29">
+      <formula>$G9="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="30">
+      <formula>$G9="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="expression" dxfId="23" priority="21">
+      <formula>$G11="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="22">
+      <formula>$G11="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:F1">
+    <cfRule type="expression" dxfId="21" priority="17">
+      <formula>$G1="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="18">
+      <formula>$G1="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="19" priority="15">
+      <formula>$G1="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="16">
+      <formula>$G1="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="17" priority="13">
+      <formula>$G4="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="14">
+      <formula>$G4="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F9">
+    <cfRule type="expression" dxfId="15" priority="11">
+      <formula>$G6="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="12">
+      <formula>$G6="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E9">
+    <cfRule type="expression" dxfId="13" priority="9">
+      <formula>$G6="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="10">
+      <formula>$G6="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="11" priority="7">
+      <formula>$G5="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="8">
+      <formula>$G5="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="expression" dxfId="9" priority="5">
+      <formula>$G5="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="6">
+      <formula>$G5="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>$G10="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>$G10="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G50">
+    <cfRule type="cellIs" dxfId="5" priority="99" operator="equal">
       <formula>"open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="100" operator="equal">
       <formula>"closed"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:F28">
-    <cfRule type="expression" dxfId="99" priority="83">
-      <formula>$G16="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="84">
-      <formula>$G16="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:F15">
-    <cfRule type="expression" dxfId="97" priority="57">
-      <formula>$G15="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="58">
-      <formula>$G15="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:F14">
-    <cfRule type="expression" dxfId="95" priority="55">
-      <formula>$G14="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="56">
-      <formula>$G14="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:F13">
-    <cfRule type="expression" dxfId="93" priority="53">
-      <formula>$G13="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="54">
-      <formula>$G13="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:F12">
-    <cfRule type="expression" dxfId="91" priority="51">
-      <formula>$G12="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="52">
-      <formula>$G12="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:F11">
-    <cfRule type="expression" dxfId="89" priority="49">
-      <formula>$G11="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="50">
-      <formula>$G11="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:D10 F10">
-    <cfRule type="expression" dxfId="87" priority="47">
-      <formula>$G10="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="48">
-      <formula>$G10="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9">
-    <cfRule type="expression" dxfId="85" priority="45">
-      <formula>$G9="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="46">
-      <formula>$G9="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8">
-    <cfRule type="expression" dxfId="83" priority="43">
-      <formula>$G8="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="44">
-      <formula>$G8="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:C7">
-    <cfRule type="expression" dxfId="81" priority="41">
-      <formula>$G7="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="42">
-      <formula>$G7="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:D6">
-    <cfRule type="expression" dxfId="79" priority="39">
-      <formula>$G6="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="40">
-      <formula>$G6="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:D5">
-    <cfRule type="expression" dxfId="77" priority="37">
-      <formula>$G5="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="38">
-      <formula>$G5="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:D4 F4">
-    <cfRule type="expression" dxfId="75" priority="35">
-      <formula>$G4="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="36">
-      <formula>$G4="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:F3">
-    <cfRule type="expression" dxfId="73" priority="33">
-      <formula>$G3="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="34">
-      <formula>$G3="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="71" priority="31">
-      <formula>$G7="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="32">
-      <formula>$G7="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="69" priority="29">
-      <formula>$G8="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="30">
-      <formula>$G8="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="67" priority="27">
-      <formula>$G9="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="28">
-      <formula>$G9="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="65" priority="19">
-      <formula>$G11="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="20">
-      <formula>$G11="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="63" priority="17" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="18" operator="equal">
-      <formula>"closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:F1">
-    <cfRule type="expression" dxfId="61" priority="15">
-      <formula>$G1="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="16">
-      <formula>$G1="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="59" priority="13">
-      <formula>$G1="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="14">
-      <formula>$G1="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="57" priority="11">
-      <formula>$G4="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="12">
-      <formula>$G4="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F9">
-    <cfRule type="expression" dxfId="55" priority="9">
-      <formula>$G6="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="10">
-      <formula>$G6="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E9">
-    <cfRule type="expression" dxfId="53" priority="7">
-      <formula>$G6="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="8">
-      <formula>$G6="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="51" priority="5">
-      <formula>$G5="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="6">
-      <formula>$G5="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="49" priority="3">
-      <formula>$G5="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="4">
-      <formula>$G5="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="47" priority="1">
-      <formula>$G10="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="2">
-      <formula>$G10="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G28 G1" xr:uid="{87A7164F-2B49-4FDB-8940-A3AD449C33F7}">
-      <formula1>"closed,open,under review"</formula1>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"work in progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G17:G28" xr:uid="{87A7164F-2B49-4FDB-8940-A3AD449C33F7}">
+      <formula1>"closed,open,work in progress,final review"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G16" xr:uid="{75A934DD-73E4-4D06-BBD4-A3D4A98721A8}">
+      <formula1>"closed,open,work in progress,final review"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions gridLines="1"/>
@@ -2359,11 +2837,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF01E4B1-07AA-401B-93E3-E95364E1DFE9}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2386,7 +2864,7 @@
         <v>27</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2554,195 +3032,251 @@
       <c r="D28" s="4"/>
       <c r="G28" s="6"/>
     </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="6"/>
+    </row>
   </sheetData>
   <autoFilter ref="A2:G2" xr:uid="{21B7E40D-2FBA-4FF4-B35F-30341514E5CB}"/>
-  <conditionalFormatting sqref="G3 G5:G28">
-    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
+  <conditionalFormatting sqref="A16:F28">
+    <cfRule type="expression" dxfId="159" priority="54">
+      <formula>$G16="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="55">
+      <formula>$G16="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:F15">
+    <cfRule type="expression" dxfId="157" priority="52">
+      <formula>$G15="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="53">
+      <formula>$G15="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:F14">
+    <cfRule type="expression" dxfId="155" priority="50">
+      <formula>$G14="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="51">
+      <formula>$G14="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:F13">
+    <cfRule type="expression" dxfId="153" priority="48">
+      <formula>$G13="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="49">
+      <formula>$G13="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:F12">
+    <cfRule type="expression" dxfId="151" priority="46">
+      <formula>$G12="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="47">
+      <formula>$G12="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:F11">
+    <cfRule type="expression" dxfId="149" priority="44">
+      <formula>$G11="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="45">
+      <formula>$G11="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:F10">
+    <cfRule type="expression" dxfId="147" priority="42">
+      <formula>$G10="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="43">
+      <formula>$G10="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:C9 E9:F9">
+    <cfRule type="expression" dxfId="145" priority="40">
+      <formula>$G9="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="41">
+      <formula>$G9="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:C8 E8:F8">
+    <cfRule type="expression" dxfId="143" priority="38">
+      <formula>$G8="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="39">
+      <formula>$G8="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:C7 E7:F7">
+    <cfRule type="expression" dxfId="141" priority="36">
+      <formula>$G7="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="37">
+      <formula>$G7="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:F6">
+    <cfRule type="expression" dxfId="139" priority="34">
+      <formula>$G6="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="35">
+      <formula>$G6="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:F5">
+    <cfRule type="expression" dxfId="137" priority="32">
+      <formula>$G5="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="33">
+      <formula>$G5="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:F3">
+    <cfRule type="expression" dxfId="135" priority="28">
+      <formula>$G3="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="29">
+      <formula>$G3="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="133" priority="26">
+      <formula>$G7="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="27">
+      <formula>$G7="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="131" priority="24">
+      <formula>$G8="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="25">
+      <formula>$G8="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="129" priority="22">
+      <formula>$G9="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="23">
+      <formula>$G9="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F4">
+    <cfRule type="expression" dxfId="125" priority="18">
+      <formula>$G4="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="19">
+      <formula>$G4="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="expression" dxfId="123" priority="16">
+      <formula>$G4="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="17">
+      <formula>$G4="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:F1">
+    <cfRule type="expression" dxfId="119" priority="6">
+      <formula>$G1="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="7">
+      <formula>$G1="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="117" priority="4">
+      <formula>$G1="open"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="5">
+      <formula>$G1="closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G50">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"work in progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"closed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:F28">
-    <cfRule type="expression" dxfId="43" priority="51">
-      <formula>$G16="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="52">
-      <formula>$G16="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:F15">
-    <cfRule type="expression" dxfId="41" priority="49">
-      <formula>$G15="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="50">
-      <formula>$G15="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:F14">
-    <cfRule type="expression" dxfId="39" priority="47">
-      <formula>$G14="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="48">
-      <formula>$G14="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:F13">
-    <cfRule type="expression" dxfId="37" priority="45">
-      <formula>$G13="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="46">
-      <formula>$G13="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:F12">
-    <cfRule type="expression" dxfId="35" priority="43">
-      <formula>$G12="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="44">
-      <formula>$G12="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:F11">
-    <cfRule type="expression" dxfId="33" priority="41">
-      <formula>$G11="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="42">
-      <formula>$G11="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:F10">
-    <cfRule type="expression" dxfId="31" priority="39">
-      <formula>$G10="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="40">
-      <formula>$G10="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C9 E9:F9">
-    <cfRule type="expression" dxfId="29" priority="37">
-      <formula>$G9="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="38">
-      <formula>$G9="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8 E8:F8">
-    <cfRule type="expression" dxfId="27" priority="35">
-      <formula>$G8="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="36">
-      <formula>$G8="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:C7 E7:F7">
-    <cfRule type="expression" dxfId="25" priority="33">
-      <formula>$G7="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="34">
-      <formula>$G7="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:F6">
-    <cfRule type="expression" dxfId="23" priority="31">
-      <formula>$G6="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="32">
-      <formula>$G6="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:F5">
-    <cfRule type="expression" dxfId="21" priority="29">
-      <formula>$G5="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="30">
-      <formula>$G5="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:F3">
-    <cfRule type="expression" dxfId="19" priority="25">
-      <formula>$G3="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="26">
-      <formula>$G3="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="17" priority="23">
-      <formula>$G7="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
-      <formula>$G7="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="15" priority="21">
-      <formula>$G8="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="22">
-      <formula>$G8="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="13" priority="19">
-      <formula>$G9="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="20">
-      <formula>$G9="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
-      <formula>"closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F4">
-    <cfRule type="expression" dxfId="9" priority="15">
-      <formula>$G4="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16">
-      <formula>$G4="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="7" priority="13">
-      <formula>$G4="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="14">
-      <formula>$G4="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:F1">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$G1="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$G1="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$G1="open"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$G1="closed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G28 G1" xr:uid="{F474D572-17AE-477E-BCAF-A68663D1E687}">
-      <formula1>"closed,open,under review"</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{A14EB1CF-17EE-47B2-B64C-9F3EA69EDF9B}">
+      <formula1>"closed,open,work in progress, final review"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G50" xr:uid="{BE588BA0-D646-4EAD-8900-0EF1D676AC8C}">
+      <formula1>"closed,open,work in progress,final review"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions gridLines="1"/>
